--- a/biology/Botanique/Chèvrefeuille_des_Alpes/Chèvrefeuille_des_Alpes.xlsx
+++ b/biology/Botanique/Chèvrefeuille_des_Alpes/Chèvrefeuille_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Alpes</t>
+          <t>Chèvrefeuille_des_Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera alpigena
 Le chèvrefeuille des Alpes ou camérisier des Alpes (Lonicera alpigena), en Anglais Alpine Honeysuckle, en Allemand Alpen-Heckenkirsche est une espèce de chèvrefeuille originaire des forêts montagneuses de l'Europe centrale et de l'Europe de l'Est. Il est parfois cultivé comme plante ornementale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Alpes</t>
+          <t>Chèvrefeuille_des_Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lonicera alpigena L. subbsp. glutinosa (Vis)
 Lonicera glutinosa Vis</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Alpes</t>
+          <t>Chèvrefeuille_des_Alpes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chèvrefeuille des Alpes est un arbrisseau dressé d'1 m de haut qui peut atteindre jusqu'à 2 m.
 Ses feuilles caduques, sont pétiolées, grandes, oblongues et velues.
-Les fleurs sont rosâtres à étamines rouges. La floraison a lieu de mai à juillet. Les fruits sont toxiques[1].
+Les fleurs sont rosâtres à étamines rouges. La floraison a lieu de mai à juillet. Les fruits sont toxiques.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_des_Alpes</t>
+          <t>Chèvrefeuille_des_Alpes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est localisé aux bois et rocailles de montagne, de 500 à 2 250 mètres.
-On le retrouve au Japon et aux Îles Kurile et en Europe centrale, Autriche, Allemagne, Suisse, Roumanie, Yougoslavie, Albanie, Grèce, Italie, Espagne et France[2]. En France il se cantonne dans les montagnes : Jura, Alpes, Auvergne, Corbières, Massif Central, Cévennes et Pyrénées[3].
+On le retrouve au Japon et aux Îles Kurile et en Europe centrale, Autriche, Allemagne, Suisse, Roumanie, Yougoslavie, Albanie, Grèce, Italie, Espagne et France. En France il se cantonne dans les montagnes : Jura, Alpes, Auvergne, Corbières, Massif Central, Cévennes et Pyrénées.
 </t>
         </is>
       </c>
